--- a/Assets/Other/_契约.xlsx
+++ b/Assets/Other/_契约.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>皈依</t>
   </si>
@@ -30,7 +30,22 @@
     <t>地藏王的契约</t>
   </si>
   <si>
-    <t>皈依地藏王菩萨，获取专属物品和强化等等</t>
+    <t>皈依地藏王菩萨，获取专属物品和强化——宏愿等等</t>
+  </si>
+  <si>
+    <t>专属强化：宏愿</t>
+  </si>
+  <si>
+    <t>发下宏愿，获得限制与强化</t>
+  </si>
+  <si>
+    <t>大日肱二头肌</t>
+  </si>
+  <si>
+    <t>每回合生命+1，获得永久饱腹状态，不能再击杀野兽，野兽生命值为0后被击晕</t>
+  </si>
+  <si>
+    <t>从佛教传说中幻化出的概念物品，吃下此肉后，即视为发下不杀生之宏愿</t>
   </si>
   <si>
     <t>齐天大圣的契约</t>
@@ -52,7 +67,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,15 +77,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,129 +197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,30 +420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,41 +434,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,153 +461,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,13 +1022,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="78.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1047,19 +1059,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>7</v>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
